--- a/Expr2d/Expr_5.xlsx
+++ b/Expr2d/Expr_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD89AD8-49C4-7F4E-BE2E-43ACEE314D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C173EA4E-F6C9-4A4C-9588-D5B9ED57D857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28820" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="28820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>src_lam/possion_domain.py</t>
   </si>
   <si>
-    <t>Result/Expr2_1</t>
-  </si>
-  <si>
     <t>data/possion_2d/holes/train_loader.pt</t>
   </si>
   <si>
@@ -142,7 +139,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,5000,10000</t>
+    <t>Result/Expr2_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,15000,30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -651,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -668,16 +669,16 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -686,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="1">
-        <v>10100</v>
+        <v>30100</v>
       </c>
       <c r="L2" s="1">
         <v>1000</v>
@@ -701,13 +702,13 @@
         <v>5000</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="6">
         <v>2400</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>39</v>
@@ -737,27 +738,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -773,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -781,16 +782,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
